--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.029662</v>
+        <v>0.5439096666666666</v>
       </c>
       <c r="H2">
-        <v>3.088986</v>
+        <v>1.631729</v>
       </c>
       <c r="I2">
-        <v>0.008285277389098726</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="J2">
-        <v>0.008285277389098728</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>0.3922085524200001</v>
+        <v>0.2557720703242222</v>
       </c>
       <c r="R2">
-        <v>3.52987697178</v>
+        <v>2.301948632918</v>
       </c>
       <c r="S2">
-        <v>5.497888772674062E-05</v>
+        <v>3.15610604631708E-05</v>
       </c>
       <c r="T2">
-        <v>5.497888772674063E-05</v>
+        <v>3.15610604631708E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.029662</v>
+        <v>0.5439096666666666</v>
       </c>
       <c r="H3">
-        <v>3.088986</v>
+        <v>1.631729</v>
       </c>
       <c r="I3">
-        <v>0.008285277389098726</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="J3">
-        <v>0.008285277389098728</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>0.3289577886426666</v>
+        <v>0.1737689855195556</v>
       </c>
       <c r="R3">
-        <v>2.960620097784</v>
+        <v>1.563920869676</v>
       </c>
       <c r="S3">
-        <v>4.611254195511466E-05</v>
+        <v>2.144226870296857E-05</v>
       </c>
       <c r="T3">
-        <v>4.611254195511467E-05</v>
+        <v>2.144226870296857E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.029662</v>
+        <v>0.5439096666666666</v>
       </c>
       <c r="H4">
-        <v>3.088986</v>
+        <v>1.631729</v>
       </c>
       <c r="I4">
-        <v>0.008285277389098726</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="J4">
-        <v>0.008285277389098728</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>2.067995813364</v>
+        <v>0.5696404012676666</v>
       </c>
       <c r="R4">
-        <v>18.611962320276</v>
+        <v>5.126763611409</v>
       </c>
       <c r="S4">
-        <v>0.0002898868699848149</v>
+        <v>7.029092396165002E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002898868699848149</v>
+        <v>7.029092396165002E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.029662</v>
+        <v>0.5439096666666666</v>
       </c>
       <c r="H5">
-        <v>3.088986</v>
+        <v>1.631729</v>
       </c>
       <c r="I5">
-        <v>0.008285277389098726</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="J5">
-        <v>0.008285277389098728</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>56.31637427125934</v>
+        <v>27.31009035789345</v>
       </c>
       <c r="R5">
-        <v>506.8473684413341</v>
+        <v>245.790813221041</v>
       </c>
       <c r="S5">
-        <v>0.007894299089432056</v>
+        <v>0.003369935630374048</v>
       </c>
       <c r="T5">
-        <v>0.007894299089432058</v>
+        <v>0.003369935630374048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>3.051567</v>
       </c>
       <c r="I6">
-        <v>0.00818491215771772</v>
+        <v>0.00653284034046588</v>
       </c>
       <c r="J6">
-        <v>0.008184912157717722</v>
+        <v>0.006532840340465881</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>0.38745746199</v>
+        <v>0.4783304147459999</v>
       </c>
       <c r="R6">
-        <v>3.48711715791</v>
+        <v>4.304973732714</v>
       </c>
       <c r="S6">
-        <v>5.431289085920968E-05</v>
+        <v>5.90237046681261E-05</v>
       </c>
       <c r="T6">
-        <v>5.431289085920968E-05</v>
+        <v>5.90237046681261E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.051567</v>
       </c>
       <c r="I7">
-        <v>0.00818491215771772</v>
+        <v>0.00653284034046588</v>
       </c>
       <c r="J7">
-        <v>0.008184912157717722</v>
+        <v>0.006532840340465881</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
-        <v>0.3249728979719999</v>
+        <v>0.324972897972</v>
       </c>
       <c r="R7">
-        <v>2.924756081747999</v>
+        <v>2.924756081748</v>
       </c>
       <c r="S7">
-        <v>4.555394919767954E-05</v>
+        <v>4.01001144057081E-05</v>
       </c>
       <c r="T7">
-        <v>4.555394919767956E-05</v>
+        <v>4.01001144057081E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.051567</v>
       </c>
       <c r="I8">
-        <v>0.00818491215771772</v>
+        <v>0.00653284034046588</v>
       </c>
       <c r="J8">
-        <v>0.008184912157717722</v>
+        <v>0.006532840340465881</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>2.042944765758</v>
+        <v>1.065309160023</v>
       </c>
       <c r="R8">
-        <v>18.386502891822</v>
+        <v>9.587782440207</v>
       </c>
       <c r="S8">
-        <v>0.0002863752720727616</v>
+        <v>0.0001314540980523607</v>
       </c>
       <c r="T8">
-        <v>0.0002863752720727616</v>
+        <v>0.0001314540980523607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.051567</v>
       </c>
       <c r="I9">
-        <v>0.00818491215771772</v>
+        <v>0.00653284034046588</v>
       </c>
       <c r="J9">
-        <v>0.008184912157717722</v>
+        <v>0.006532840340465881</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>55.634175514497</v>
+        <v>51.073781555127</v>
       </c>
       <c r="R9">
-        <v>500.707579630473</v>
+        <v>459.6640339961431</v>
       </c>
       <c r="S9">
-        <v>0.00779867004558807</v>
+        <v>0.006302262423339685</v>
       </c>
       <c r="T9">
-        <v>0.007798670045588071</v>
+        <v>0.006302262423339686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.232029333333333</v>
+        <v>0.21601</v>
       </c>
       <c r="H10">
-        <v>3.696088</v>
+        <v>0.6480299999999999</v>
       </c>
       <c r="I10">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="J10">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>0.4692922933600001</v>
+        <v>0.1015781264733333</v>
       </c>
       <c r="R10">
-        <v>4.223630640240001</v>
+        <v>0.9142031382599998</v>
       </c>
       <c r="S10">
-        <v>6.578430824230129E-05</v>
+        <v>1.253425906627177E-05</v>
       </c>
       <c r="T10">
-        <v>6.578430824230128E-05</v>
+        <v>1.253425906627177E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.232029333333333</v>
+        <v>0.21601</v>
       </c>
       <c r="H11">
-        <v>3.696088</v>
+        <v>0.6480299999999999</v>
       </c>
       <c r="I11">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="J11">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>0.3936103741191111</v>
+        <v>0.06901116281333332</v>
       </c>
       <c r="R11">
-        <v>3.542493367071999</v>
+        <v>0.62110046532</v>
       </c>
       <c r="S11">
-        <v>5.517539185020451E-05</v>
+        <v>8.515650201464041E-06</v>
       </c>
       <c r="T11">
-        <v>5.517539185020451E-05</v>
+        <v>8.515650201464041E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.232029333333333</v>
+        <v>0.21601</v>
       </c>
       <c r="H12">
-        <v>3.696088</v>
+        <v>0.6480299999999999</v>
       </c>
       <c r="I12">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="J12">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>2.474434817712</v>
+        <v>0.2262287850699999</v>
       </c>
       <c r="R12">
-        <v>22.269913359408</v>
+        <v>2.036059065629999</v>
       </c>
       <c r="S12">
-        <v>0.0003468605495487628</v>
+        <v>2.791555917365449E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003468605495487627</v>
+        <v>2.791555917365449E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.232029333333333</v>
+        <v>0.21601</v>
       </c>
       <c r="H13">
-        <v>3.696088</v>
+        <v>0.6480299999999999</v>
       </c>
       <c r="I13">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="J13">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>67.38466122783024</v>
+        <v>10.84601539509667</v>
       </c>
       <c r="R13">
-        <v>606.4619510504721</v>
+        <v>97.61413855587</v>
       </c>
       <c r="S13">
-        <v>0.009445825954815188</v>
+        <v>0.001338346861857143</v>
       </c>
       <c r="T13">
-        <v>0.009445825954815188</v>
+        <v>0.001338346861857143</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>120.9972243333333</v>
+        <v>153.9268343333333</v>
       </c>
       <c r="H14">
-        <v>362.991673</v>
+        <v>461.780503</v>
       </c>
       <c r="I14">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="J14">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>46.08905272081</v>
+        <v>72.38368337369177</v>
       </c>
       <c r="R14">
-        <v>414.80147448729</v>
+        <v>651.4531503632259</v>
       </c>
       <c r="S14">
-        <v>0.006460656809583709</v>
+        <v>0.008931803244225251</v>
       </c>
       <c r="T14">
-        <v>0.006460656809583709</v>
+        <v>0.008931803244225251</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>120.9972243333333</v>
+        <v>153.9268343333333</v>
       </c>
       <c r="H15">
-        <v>362.991673</v>
+        <v>461.780503</v>
       </c>
       <c r="I15">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="J15">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>38.65635455964577</v>
+        <v>49.17675026859244</v>
       </c>
       <c r="R15">
-        <v>347.9071910368119</v>
+        <v>442.590752417332</v>
       </c>
       <c r="S15">
-        <v>0.005418758372673026</v>
+        <v>0.006068177759369344</v>
       </c>
       <c r="T15">
-        <v>0.005418758372673026</v>
+        <v>0.006068177759369344</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>120.9972243333333</v>
+        <v>153.9268343333333</v>
       </c>
       <c r="H16">
-        <v>362.991673</v>
+        <v>461.780503</v>
       </c>
       <c r="I16">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="J16">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>243.013487290002</v>
+        <v>161.2086510851403</v>
       </c>
       <c r="R16">
-        <v>2187.121385610018</v>
+        <v>1450.877859766263</v>
       </c>
       <c r="S16">
-        <v>0.03406506857477549</v>
+        <v>0.01989238300192342</v>
       </c>
       <c r="T16">
-        <v>0.03406506857477548</v>
+        <v>0.01989238300192342</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>120.9972243333333</v>
+        <v>153.9268343333333</v>
       </c>
       <c r="H17">
-        <v>362.991673</v>
+        <v>461.780503</v>
       </c>
       <c r="I17">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="J17">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>6617.826987243899</v>
+        <v>7728.775588620098</v>
       </c>
       <c r="R17">
-        <v>59560.44288519509</v>
+        <v>69558.98029758089</v>
       </c>
       <c r="S17">
-        <v>0.9276716804916949</v>
+        <v>0.9536942534402157</v>
       </c>
       <c r="T17">
-        <v>0.9276716804916949</v>
+        <v>0.9536942534402157</v>
       </c>
     </row>
   </sheetData>
